--- a/cahier des spécifications/scénario/plan.xlsx
+++ b/cahier des spécifications/scénario/plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\DISII\p3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\DISII\p3\scénario\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
   <si>
     <t>Page d'accueil</t>
   </si>
@@ -59,54 +59,15 @@
     <t>Meilleures ventes</t>
   </si>
   <si>
-    <t>Produit</t>
-  </si>
-  <si>
     <t>footer</t>
   </si>
   <si>
-    <t>Promotions</t>
-  </si>
-  <si>
-    <t>Nouveaux produits</t>
-  </si>
-  <si>
-    <t>Nos magasins</t>
-  </si>
-  <si>
-    <t>Conditions d'utilisation</t>
-  </si>
-  <si>
-    <t>sitemap</t>
-  </si>
-  <si>
     <t>Mon compte</t>
   </si>
   <si>
-    <t>Mes commandes</t>
-  </si>
-  <si>
-    <t>Mes avoirs</t>
-  </si>
-  <si>
-    <t>Mes adresses</t>
-  </si>
-  <si>
-    <t>Mes informations personnelles</t>
-  </si>
-  <si>
-    <t>Mes bons de réduction</t>
-  </si>
-  <si>
     <t>Créer votre compte</t>
   </si>
   <si>
-    <t>Page de résultat</t>
-  </si>
-  <si>
-    <t>Retour acceuil</t>
-  </si>
-  <si>
     <t>Volet gauche</t>
   </si>
   <si>
@@ -125,12 +86,6 @@
     <t>Image produit</t>
   </si>
   <si>
-    <t>Ajouter au panier</t>
-  </si>
-  <si>
-    <t>Détails</t>
-  </si>
-  <si>
     <t>Ajouter au comparateur</t>
   </si>
   <si>
@@ -158,10 +113,97 @@
     <t>Commander</t>
   </si>
   <si>
-    <t>header</t>
-  </si>
-  <si>
-    <t>liste catégories</t>
+    <t>Volet liste catégories</t>
+  </si>
+  <si>
+    <t>Fiche produit</t>
+  </si>
+  <si>
+    <t>Lien externe</t>
+  </si>
+  <si>
+    <t>Liste produits</t>
+  </si>
+  <si>
+    <t>Envoyer</t>
+  </si>
+  <si>
+    <t>Formulaires</t>
+  </si>
+  <si>
+    <t>S'inscrire</t>
+  </si>
+  <si>
+    <t>Formulaire</t>
+  </si>
+  <si>
+    <t>Fiche catégorie</t>
+  </si>
+  <si>
+    <t>Le moins cher</t>
+  </si>
+  <si>
+    <t>Le plus cher</t>
+  </si>
+  <si>
+    <t>De A à Z</t>
+  </si>
+  <si>
+    <t>De Z à A</t>
+  </si>
+  <si>
+    <t>En stock</t>
+  </si>
+  <si>
+    <t>Référence: croissante</t>
+  </si>
+  <si>
+    <t>Référence: décroissante</t>
+  </si>
+  <si>
+    <t>Liste produit</t>
+  </si>
+  <si>
+    <t>Adresse</t>
+  </si>
+  <si>
+    <t>Selection adresse</t>
+  </si>
+  <si>
+    <t>Bouton radio</t>
+  </si>
+  <si>
+    <t>Màj adresse facturation</t>
+  </si>
+  <si>
+    <t>Màj adresse livraison</t>
+  </si>
+  <si>
+    <t>Ajout nouvelle adresse</t>
+  </si>
+  <si>
+    <t>Continuer mes achats</t>
+  </si>
+  <si>
+    <t>Livraison</t>
+  </si>
+  <si>
+    <t>Lire les conditions générales de ventes</t>
+  </si>
+  <si>
+    <t>Conditions générales de ventes</t>
+  </si>
+  <si>
+    <t>Virement bancaire</t>
+  </si>
+  <si>
+    <t>Payer par chèque</t>
+  </si>
+  <si>
+    <t>Payer par carte bancaire</t>
+  </si>
+  <si>
+    <t>Je confirme ma commande</t>
   </si>
 </sst>
 </file>
@@ -210,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -219,6 +261,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,10 +545,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,374 +557,582 @@
     <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="L1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="L2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C5" s="4" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+      <c r="C10" s="3"/>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="3"/>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="3"/>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
+      <c r="C13" s="3"/>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+      <c r="C14" s="3"/>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
+      <c r="C15" s="3"/>
+      <c r="D15" t="s">
         <v>44</v>
       </c>
-      <c r="L5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C6" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C7" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C8" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="L9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C10" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M11" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+      <c r="C16" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="L12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="L13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
-      <c r="C15" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
-      <c r="C16" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="1"/>
+      <c r="D20" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C21" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C22" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="1"/>
-      <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="1"/>
-      <c r="C21" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="1"/>
-      <c r="C22" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="1"/>
-      <c r="C23" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
-      <c r="C24" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
-      <c r="C25" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C27" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="1"/>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="1"/>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
-      <c r="C29" s="4" t="s">
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="1"/>
+      <c r="C30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="1"/>
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C32" s="1"/>
+      <c r="E32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="F41" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="F42" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="6"/>
+      <c r="G46" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="6"/>
+      <c r="G48" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="6"/>
+      <c r="G49" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="5"/>
+      <c r="G50" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="5"/>
+      <c r="G51" t="s">
+        <v>56</v>
+      </c>
+      <c r="H51" s="5"/>
+      <c r="I51" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="5"/>
+      <c r="G52" t="s">
+        <v>57</v>
+      </c>
+      <c r="H52" s="5"/>
+      <c r="I52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="5"/>
+      <c r="G53" t="s">
+        <v>58</v>
+      </c>
+      <c r="H53" s="5"/>
+      <c r="I53" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="5"/>
+      <c r="G54" t="s">
+        <v>52</v>
+      </c>
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C56" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C57" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="C60" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="1"/>
-      <c r="C38" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C40" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C41" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C42" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C43" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
+      <c r="C62" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B63" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
-        <v>23</v>
-      </c>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="5"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="5"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="5"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="5"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="5"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="5"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
